--- a/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC06-Workbook.xlsx
+++ b/files/teaching-resources/monmouthcollege-busi-201/busi-201-s2024/busi-201-s2024-workbooks/BUSI201-S2024-LEC06-Workbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI201] Business Data Analysis\BUSI201-Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\GitHub\brianhwpark.github.io\files\teaching-resources\monmouthcollege-busi-201\busi-201-s2024\busi-201-s2024-workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E490589D-1AB5-44E3-A994-8C7E69E2FA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F924F2-0781-4B77-877A-E20813A54765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0370A53-E83C-44B1-80DC-D3572B94AFF1}"/>
   </bookViews>
@@ -18,7 +18,13 @@
     <sheet name="XLOOKUP_DATA" sheetId="11" r:id="rId3"/>
     <sheet name="AND_OR" sheetId="9" r:id="rId4"/>
     <sheet name="HELPER" sheetId="10" r:id="rId5"/>
+    <sheet name="Expenses" sheetId="12" r:id="rId6"/>
+    <sheet name="Sales" sheetId="13" r:id="rId7"/>
+    <sheet name="Inventory" sheetId="14" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sales!$I$2:$L$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="455">
   <si>
     <t>Sales Rep</t>
   </si>
@@ -775,20 +781,661 @@
   </si>
   <si>
     <t>Pharma</t>
+  </si>
+  <si>
+    <t>Card B</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Train Tickets</t>
+  </si>
+  <si>
+    <t>Card A</t>
+  </si>
+  <si>
+    <t>Drug Stores</t>
+  </si>
+  <si>
+    <t>PharmaChoice</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Concert Hall</t>
+  </si>
+  <si>
+    <t>Dining</t>
+  </si>
+  <si>
+    <t>The Diner</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>FuelZone</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>ShopSmart</t>
+  </si>
+  <si>
+    <t>Bowling Alley</t>
+  </si>
+  <si>
+    <t>HealthEase</t>
+  </si>
+  <si>
+    <t>Vacation Agency</t>
+  </si>
+  <si>
+    <t>The Café</t>
+  </si>
+  <si>
+    <t>FastFill</t>
+  </si>
+  <si>
+    <t>ShopRight</t>
+  </si>
+  <si>
+    <t>MiniGolf</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Pizzeria Bella</t>
+  </si>
+  <si>
+    <t>QuickFill</t>
+  </si>
+  <si>
+    <t>FreshFare</t>
+  </si>
+  <si>
+    <t>MediCare</t>
+  </si>
+  <si>
+    <t>GameZone</t>
+  </si>
+  <si>
+    <t>Sushi Palace</t>
+  </si>
+  <si>
+    <t>FuelEaze</t>
+  </si>
+  <si>
+    <t>SaveMore</t>
+  </si>
+  <si>
+    <t>AmuseWorld</t>
+  </si>
+  <si>
+    <t>Cafe Express</t>
+  </si>
+  <si>
+    <t>FastFuel</t>
+  </si>
+  <si>
+    <t>FreshMart</t>
+  </si>
+  <si>
+    <t>QuickMeds</t>
+  </si>
+  <si>
+    <t>CinePlex</t>
+  </si>
+  <si>
+    <t>The Grill</t>
+  </si>
+  <si>
+    <t>FuelUp</t>
+  </si>
+  <si>
+    <t>Hotel Stay Inc.</t>
+  </si>
+  <si>
+    <t>MegaMart</t>
+  </si>
+  <si>
+    <t>Casa Italia</t>
+  </si>
+  <si>
+    <t>Movieplex</t>
+  </si>
+  <si>
+    <t>PetroCo</t>
+  </si>
+  <si>
+    <t>Health Plus</t>
+  </si>
+  <si>
+    <t>Airlines Inc.</t>
+  </si>
+  <si>
+    <t>The Bistro</t>
+  </si>
+  <si>
+    <t>Supermart</t>
+  </si>
+  <si>
+    <t>Optimal
+Cashback</t>
+  </si>
+  <si>
+    <t>Optimal
+Return</t>
+  </si>
+  <si>
+    <t>Realized
+Cashback</t>
+  </si>
+  <si>
+    <t>Realized
+Return</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>All Others</t>
+  </si>
+  <si>
+    <t>Optimal</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Rate of Return</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>Boots</t>
+  </si>
+  <si>
+    <t>Employee D</t>
+  </si>
+  <si>
+    <t>Sweater</t>
+  </si>
+  <si>
+    <t>Employee A</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Employee F</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Employee C</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Employee E</t>
+  </si>
+  <si>
+    <t>Umbrella</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Employee B</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Bottom Rank</t>
+  </si>
+  <si>
+    <t>Top Rank</t>
+  </si>
+  <si>
+    <t>Total Quantity</t>
+  </si>
+  <si>
+    <t># of Sales</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Sales ($)</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Personal Care</t>
+  </si>
+  <si>
+    <t>Deodorant</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Facial Tissues</t>
+  </si>
+  <si>
+    <t>Kleenex</t>
+  </si>
+  <si>
+    <t>Baking Supplies</t>
+  </si>
+  <si>
+    <t>Baking Soda</t>
+  </si>
+  <si>
+    <t>Arm &amp; Hammer</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Tortilla Chips</t>
+  </si>
+  <si>
+    <t>Tostitos</t>
+  </si>
+  <si>
+    <t>Candy &amp; Sweets</t>
+  </si>
+  <si>
+    <t>Chocolate Candy</t>
+  </si>
+  <si>
+    <t>M&amp;M's</t>
+  </si>
+  <si>
+    <t>Conditioner</t>
+  </si>
+  <si>
+    <t>Pantene</t>
+  </si>
+  <si>
+    <t>Glass Cleaner</t>
+  </si>
+  <si>
+    <t>Windex</t>
+  </si>
+  <si>
+    <t>Dryer Sheets</t>
+  </si>
+  <si>
+    <t>Bounce</t>
+  </si>
+  <si>
+    <t>Paper Towels</t>
+  </si>
+  <si>
+    <t>Bounty</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Dr. Pepper</t>
+  </si>
+  <si>
+    <t>Breakfast Cereals</t>
+  </si>
+  <si>
+    <t>Special K</t>
+  </si>
+  <si>
+    <t>Kellogg's</t>
+  </si>
+  <si>
+    <t>Peanut Butter Cups</t>
+  </si>
+  <si>
+    <t>Reese's</t>
+  </si>
+  <si>
+    <t>Storage Bags</t>
+  </si>
+  <si>
+    <t>Ziploc</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Cat Food</t>
+  </si>
+  <si>
+    <t>Whiskas</t>
+  </si>
+  <si>
+    <t>Body Wash</t>
+  </si>
+  <si>
+    <t>All-Purpose Cleaner</t>
+  </si>
+  <si>
+    <t>Lysol</t>
+  </si>
+  <si>
+    <t>Grape Juice</t>
+  </si>
+  <si>
+    <t>Welch's</t>
+  </si>
+  <si>
+    <t>Air Freshener</t>
+  </si>
+  <si>
+    <t>Febreze</t>
+  </si>
+  <si>
+    <t>Oreo Cookies</t>
+  </si>
+  <si>
+    <t>Oreo</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Honey Nut Cheerios</t>
+  </si>
+  <si>
+    <t>Cheerios</t>
+  </si>
+  <si>
+    <t>Laundry Detergent</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Dog Food</t>
+  </si>
+  <si>
+    <t>Purina</t>
+  </si>
+  <si>
+    <t>Frozen Foods</t>
+  </si>
+  <si>
+    <t>Frozen Pizza</t>
+  </si>
+  <si>
+    <t>Nestlé</t>
+  </si>
+  <si>
+    <t>Baby Care</t>
+  </si>
+  <si>
+    <t>Baby Powder</t>
+  </si>
+  <si>
+    <t>Pasta &amp; Grains</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Barilla</t>
+  </si>
+  <si>
+    <t>Chocolate Bars</t>
+  </si>
+  <si>
+    <t>Hershey's</t>
+  </si>
+  <si>
+    <t>Ground Coffee</t>
+  </si>
+  <si>
+    <t>Folgers</t>
+  </si>
+  <si>
+    <t>Wet Mop Starter Kit</t>
+  </si>
+  <si>
+    <t>Swiffer</t>
+  </si>
+  <si>
+    <t>Baby Wipes</t>
+  </si>
+  <si>
+    <t>Huggies</t>
+  </si>
+  <si>
+    <t>Disinfecting Wipes</t>
+  </si>
+  <si>
+    <t>Clorox</t>
+  </si>
+  <si>
+    <t>Macaroni &amp; Cheese</t>
+  </si>
+  <si>
+    <t>Kraft</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Baby Lotion</t>
+  </si>
+  <si>
+    <t>AA Batteries</t>
+  </si>
+  <si>
+    <t>Duracell</t>
+  </si>
+  <si>
+    <t>Rice Krispies</t>
+  </si>
+  <si>
+    <t>Toilet Paper</t>
+  </si>
+  <si>
+    <t>Charmin</t>
+  </si>
+  <si>
+    <t>Breakfast Foods</t>
+  </si>
+  <si>
+    <t>Hazelnut Spread</t>
+  </si>
+  <si>
+    <t>Nutella</t>
+  </si>
+  <si>
+    <t>Orange Juice</t>
+  </si>
+  <si>
+    <t>Tropicana</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Breyers</t>
+  </si>
+  <si>
+    <t>Tide</t>
+  </si>
+  <si>
+    <t>Diapers</t>
+  </si>
+  <si>
+    <t>Pampers</t>
+  </si>
+  <si>
+    <t>Meat &amp; Poultry</t>
+  </si>
+  <si>
+    <t>Bratwurst Sausages</t>
+  </si>
+  <si>
+    <t>Johnsonville</t>
+  </si>
+  <si>
+    <t>Sports Drink</t>
+  </si>
+  <si>
+    <t>Gatorade</t>
+  </si>
+  <si>
+    <t>Potato Chips</t>
+  </si>
+  <si>
+    <t>Lay's</t>
+  </si>
+  <si>
+    <t>Bar Soap</t>
+  </si>
+  <si>
+    <t>Green Tea Bags</t>
+  </si>
+  <si>
+    <t>Lipton</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Oatmeal</t>
+  </si>
+  <si>
+    <t>Quaker Oats</t>
+  </si>
+  <si>
+    <t>Baby Shampoo</t>
+  </si>
+  <si>
+    <t>Toothpaste</t>
+  </si>
+  <si>
+    <t>Colgate</t>
+  </si>
+  <si>
+    <t>Canned Foods</t>
+  </si>
+  <si>
+    <t>Tomato Soup</t>
+  </si>
+  <si>
+    <t>Campbell's</t>
+  </si>
+  <si>
+    <t>Bottled Water</t>
+  </si>
+  <si>
+    <t>Condiments</t>
+  </si>
+  <si>
+    <t>Ketchup</t>
+  </si>
+  <si>
+    <t>Heinz</t>
+  </si>
+  <si>
+    <t>General Mills</t>
+  </si>
+  <si>
+    <t>Coca-Cola Classic</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Corn Flakes</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Code</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Item Make</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="mmm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,8 +1487,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,8 +1520,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -895,6 +1555,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -907,7 +1760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1002,6 +1855,99 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1024,9 +1970,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1064,7 +2010,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1170,7 +2116,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1312,7 +2258,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1324,20 +2270,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="3"/>
-    <col min="9" max="9" width="7.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="35.77734375" style="3" customWidth="1"/>
-    <col min="11" max="12" width="12.77734375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="10.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="3"/>
+    <col min="9" max="9" width="7.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="35.81640625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="12.81640625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -1811,12 +2757,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="4" customWidth="1"/>
-    <col min="3" max="12" width="12.77734375" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="3.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="4" customWidth="1"/>
+    <col min="3" max="12" width="12.81640625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="8.90625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
@@ -2443,24 +3389,24 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" style="27" customWidth="1"/>
     <col min="2" max="2" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="27" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.54296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.54296875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="9.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.90625" style="27" customWidth="1"/>
     <col min="14" max="14" width="10" style="27" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" style="27" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="27"/>
+    <col min="15" max="15" width="9.81640625" style="27" customWidth="1"/>
+    <col min="16" max="16384" width="8.90625" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -3120,18 +4066,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="12" customWidth="1"/>
     <col min="2" max="2" width="19" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="12.77734375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="3.44140625" style="12" customWidth="1"/>
-    <col min="13" max="16" width="18.77734375" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="12"/>
+    <col min="3" max="3" width="14.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" style="12" customWidth="1"/>
+    <col min="13" max="16" width="18.81640625" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="8.90625" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="30" customHeight="1">
@@ -3921,20 +4867,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="12" customWidth="1"/>
     <col min="2" max="2" width="19" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="12.77734375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="3.44140625" style="12" customWidth="1"/>
-    <col min="13" max="14" width="12.77734375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="3.44140625" style="12" customWidth="1"/>
-    <col min="16" max="19" width="18.77734375" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="12"/>
+    <col min="3" max="3" width="14.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.81640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" style="12" customWidth="1"/>
+    <col min="13" max="14" width="12.81640625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="3.453125" style="12" customWidth="1"/>
+    <col min="16" max="19" width="18.81640625" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="30" customHeight="1">
@@ -4762,4 +5708,3501 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17043B73-0D1A-4D64-B2DA-EC335475D490}">
+  <dimension ref="B2:J46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="27" customWidth="1"/>
+    <col min="4" max="10" width="12.81640625" style="27" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="15" thickBot="1">
+      <c r="B2" s="60">
+        <v>45139</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickTop="1">
+      <c r="B3" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="H3" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="J3" s="58">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="H4" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="I4" s="58">
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="58">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="30" customHeight="1" thickBot="1">
+      <c r="B6" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15" thickTop="1">
+      <c r="B7" s="52">
+        <v>45139</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="50">
+        <v>42.08</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="45">
+        <v>45140</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="43">
+        <v>112.67</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="45">
+        <v>45141</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="43">
+        <v>52.88</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="40"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="45">
+        <v>45143</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="43">
+        <v>81.08</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="40"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="45">
+        <v>45145</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="43">
+        <v>147.65</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="40"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="45">
+        <v>45148</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="43">
+        <v>133.77000000000001</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="45">
+        <v>45150</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="43">
+        <v>136.11000000000001</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="40"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="45">
+        <v>45152</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="43">
+        <v>141.66</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="40"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="45">
+        <v>45153</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="43">
+        <v>155.22999999999999</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="40"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="45">
+        <v>45156</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="43">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="40"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="45">
+        <v>45158</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="43">
+        <v>48.77</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="40"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="45">
+        <v>45160</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="43">
+        <v>88.61</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="45">
+        <v>45162</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="43">
+        <v>91.42</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="40"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="45">
+        <v>45165</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="43">
+        <v>64.97</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="45">
+        <v>45167</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="43">
+        <v>18.93</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="40"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="45">
+        <v>45168</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="43">
+        <v>33.76</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="40"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="45">
+        <v>45140</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="43">
+        <v>97.78</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="40"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="45">
+        <v>45142</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="43">
+        <v>42.83</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="40"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="45">
+        <v>45144</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="43">
+        <v>76.95</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="45">
+        <v>45147</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="43">
+        <v>29.09</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="40"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="45">
+        <v>45149</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="43">
+        <v>145.97999999999999</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="45">
+        <v>45151</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="43">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="45">
+        <v>45154</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="43">
+        <v>154.63999999999999</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="40"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="45">
+        <v>45157</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E30" s="43">
+        <v>93.34</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="40"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="45">
+        <v>45159</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="43">
+        <v>119.51</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="45">
+        <v>45161</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="D32" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="43">
+        <v>16.77</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="40"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="45">
+        <v>45164</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="43">
+        <v>26.94</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="40"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="45">
+        <v>45166</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" s="43">
+        <v>14.59</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="45">
+        <v>45169</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="43">
+        <v>133.1</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="45">
+        <v>45141</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E36" s="43">
+        <v>46.86</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="40"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="45">
+        <v>45143</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E37" s="43">
+        <v>159.16</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="40"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="45">
+        <v>45146</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="43">
+        <v>80.56</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="40"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="45">
+        <v>45149</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="43">
+        <v>153.94</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="40"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="45">
+        <v>45152</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" s="43">
+        <v>102.67</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="40"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="45">
+        <v>45155</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="43">
+        <v>27.77</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="40"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="45">
+        <v>45157</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="E42" s="43">
+        <v>146.35</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="40"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="45">
+        <v>45160</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" s="43">
+        <v>112.13</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="40"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="45">
+        <v>45163</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="E44" s="43">
+        <v>42.52</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="40"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="45">
+        <v>45166</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" s="43">
+        <v>120.18</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="40"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="39">
+        <v>45168</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="37">
+        <v>102.76</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262F00BE-A157-450A-A5C9-CAD46407E3F1}">
+  <dimension ref="B2:L48"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" style="27" customWidth="1"/>
+    <col min="2" max="4" width="11.81640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="2.81640625" style="27" customWidth="1"/>
+    <col min="9" max="10" width="12.81640625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.81640625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="2.81640625" style="27" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="15" thickBot="1">
+      <c r="B2" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" s="71" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickTop="1">
+      <c r="B3" s="75">
+        <v>44927</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="51">
+        <v>5</v>
+      </c>
+      <c r="F3" s="73">
+        <v>26.435000000000002</v>
+      </c>
+      <c r="G3" s="73">
+        <v>132.17500000000001</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="66">
+        <v>44928</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="44">
+        <v>34</v>
+      </c>
+      <c r="F4" s="64">
+        <v>1.1440000000000001</v>
+      </c>
+      <c r="G4" s="64">
+        <v>38.896000000000001</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="66">
+        <v>44929</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="44">
+        <v>39</v>
+      </c>
+      <c r="F5" s="64">
+        <v>87.731000000000009</v>
+      </c>
+      <c r="G5" s="64">
+        <v>3421.5090000000005</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="66">
+        <v>44930</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" s="44">
+        <v>53</v>
+      </c>
+      <c r="F6" s="64">
+        <v>75.603999999999999</v>
+      </c>
+      <c r="G6" s="64">
+        <v>4007.0120000000002</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="66">
+        <v>44931</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="44">
+        <v>61</v>
+      </c>
+      <c r="F7" s="64">
+        <v>55.182000000000002</v>
+      </c>
+      <c r="G7" s="64">
+        <v>3366.1020000000003</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="66">
+        <v>44932</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="44">
+        <v>14</v>
+      </c>
+      <c r="F8" s="64">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="G8" s="64">
+        <v>22.708000000000002</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="66">
+        <v>44933</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="44">
+        <v>25</v>
+      </c>
+      <c r="F9" s="64">
+        <v>11.273</v>
+      </c>
+      <c r="G9" s="64">
+        <v>281.82499999999999</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="66">
+        <v>44934</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="44">
+        <v>38</v>
+      </c>
+      <c r="F10" s="64">
+        <v>16.57</v>
+      </c>
+      <c r="G10" s="64">
+        <v>629.66</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="66">
+        <v>44935</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="44">
+        <v>24</v>
+      </c>
+      <c r="F11" s="64">
+        <v>84.23</v>
+      </c>
+      <c r="G11" s="64">
+        <v>2021.52</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="66">
+        <v>44936</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="44">
+        <v>89</v>
+      </c>
+      <c r="F12" s="64">
+        <v>20.993000000000002</v>
+      </c>
+      <c r="G12" s="64">
+        <v>1868.3770000000002</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="66">
+        <v>44937</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="44">
+        <v>66</v>
+      </c>
+      <c r="F13" s="64">
+        <v>92.391999999999996</v>
+      </c>
+      <c r="G13" s="64">
+        <v>6097.8719999999994</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="66">
+        <v>44938</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="44">
+        <v>85</v>
+      </c>
+      <c r="F14" s="64">
+        <v>35.26</v>
+      </c>
+      <c r="G14" s="64">
+        <v>2997.1</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="66">
+        <v>44939</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="44">
+        <v>15</v>
+      </c>
+      <c r="F15" s="64">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="G15" s="64">
+        <v>71.084999999999994</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="66">
+        <v>44940</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="44">
+        <v>19</v>
+      </c>
+      <c r="F16" s="64">
+        <v>48.137</v>
+      </c>
+      <c r="G16" s="64">
+        <v>914.60300000000007</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="66">
+        <v>44941</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E17" s="44">
+        <v>7</v>
+      </c>
+      <c r="F17" s="64">
+        <v>23.425000000000001</v>
+      </c>
+      <c r="G17" s="64">
+        <v>163.97499999999999</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="66">
+        <v>44942</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="E18" s="44">
+        <v>20</v>
+      </c>
+      <c r="F18" s="64">
+        <v>93.644999999999996</v>
+      </c>
+      <c r="G18" s="64">
+        <v>1872.8999999999999</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="66">
+        <v>44943</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="44">
+        <v>30</v>
+      </c>
+      <c r="F19" s="64">
+        <v>34.247</v>
+      </c>
+      <c r="G19" s="64">
+        <v>1027.4100000000001</v>
+      </c>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="15" thickBot="1">
+      <c r="B20" s="66">
+        <v>44944</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="44">
+        <v>58</v>
+      </c>
+      <c r="F20" s="64">
+        <v>21.277000000000001</v>
+      </c>
+      <c r="G20" s="64">
+        <v>1234.066</v>
+      </c>
+      <c r="I20" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>327</v>
+      </c>
+      <c r="K20" s="71" t="s">
+        <v>326</v>
+      </c>
+      <c r="L20" s="71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15" thickTop="1">
+      <c r="B21" s="66">
+        <v>44945</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="44">
+        <v>59</v>
+      </c>
+      <c r="F21" s="64">
+        <v>26.757999999999999</v>
+      </c>
+      <c r="G21" s="64">
+        <v>1578.722</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="66">
+        <v>44946</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="44">
+        <v>26</v>
+      </c>
+      <c r="F22" s="64">
+        <v>68.727000000000004</v>
+      </c>
+      <c r="G22" s="64">
+        <v>1786.902</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="66">
+        <v>44947</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" s="44">
+        <v>83</v>
+      </c>
+      <c r="F23" s="64">
+        <v>70.242000000000004</v>
+      </c>
+      <c r="G23" s="64">
+        <v>5830.0860000000002</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="66">
+        <v>44948</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="44">
+        <v>88</v>
+      </c>
+      <c r="F24" s="64">
+        <v>94.91</v>
+      </c>
+      <c r="G24" s="64">
+        <v>8352.08</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="66">
+        <v>44949</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="E25" s="44">
+        <v>6</v>
+      </c>
+      <c r="F25" s="64">
+        <v>40.807000000000002</v>
+      </c>
+      <c r="G25" s="64">
+        <v>244.84200000000001</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="66">
+        <v>44950</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E26" s="44">
+        <v>49</v>
+      </c>
+      <c r="F26" s="64">
+        <v>93.762</v>
+      </c>
+      <c r="G26" s="64">
+        <v>4594.3379999999997</v>
+      </c>
+      <c r="I26" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="66">
+        <v>44951</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="44">
+        <v>7</v>
+      </c>
+      <c r="F27" s="64">
+        <v>43.686</v>
+      </c>
+      <c r="G27" s="64">
+        <v>305.80200000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15" thickBot="1">
+      <c r="B28" s="66">
+        <v>44952</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" s="44">
+        <v>56</v>
+      </c>
+      <c r="F28" s="64">
+        <v>89.555000000000007</v>
+      </c>
+      <c r="G28" s="64">
+        <v>5015.08</v>
+      </c>
+      <c r="I28" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="J28" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="K28" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="L28" s="71" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15" thickTop="1">
+      <c r="B29" s="66">
+        <v>44953</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" s="44">
+        <v>66</v>
+      </c>
+      <c r="F29" s="64">
+        <v>85.165000000000006</v>
+      </c>
+      <c r="G29" s="64">
+        <v>5620.89</v>
+      </c>
+      <c r="I29" s="28">
+        <v>1</v>
+      </c>
+      <c r="J29" s="59"/>
+      <c r="K29" s="70">
+        <v>1</v>
+      </c>
+      <c r="L29" s="59"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="66">
+        <v>44954</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" s="44">
+        <v>16</v>
+      </c>
+      <c r="F30" s="64">
+        <v>84.350000000000009</v>
+      </c>
+      <c r="G30" s="64">
+        <v>1349.6000000000001</v>
+      </c>
+      <c r="I30" s="28">
+        <v>2</v>
+      </c>
+      <c r="J30" s="59"/>
+      <c r="K30" s="70">
+        <v>2</v>
+      </c>
+      <c r="L30" s="59"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="66">
+        <v>44955</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="44">
+        <v>59</v>
+      </c>
+      <c r="F31" s="64">
+        <v>13.843</v>
+      </c>
+      <c r="G31" s="64">
+        <v>816.73699999999997</v>
+      </c>
+      <c r="I31" s="28">
+        <v>3</v>
+      </c>
+      <c r="J31" s="59"/>
+      <c r="K31" s="70">
+        <v>3</v>
+      </c>
+      <c r="L31" s="59"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="66">
+        <v>44956</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="E32" s="44">
+        <v>74</v>
+      </c>
+      <c r="F32" s="64">
+        <v>39.177</v>
+      </c>
+      <c r="G32" s="64">
+        <v>2899.098</v>
+      </c>
+      <c r="I32" s="28">
+        <v>4</v>
+      </c>
+      <c r="J32" s="59"/>
+      <c r="K32" s="70">
+        <v>4</v>
+      </c>
+      <c r="L32" s="59"/>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="66">
+        <v>44958</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" s="44">
+        <v>65</v>
+      </c>
+      <c r="F33" s="64">
+        <v>40.362000000000002</v>
+      </c>
+      <c r="G33" s="64">
+        <v>2623.53</v>
+      </c>
+      <c r="I33" s="28">
+        <v>5</v>
+      </c>
+      <c r="J33" s="59"/>
+      <c r="K33" s="70">
+        <v>5</v>
+      </c>
+      <c r="L33" s="59"/>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="66">
+        <v>44959</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" s="44">
+        <v>38</v>
+      </c>
+      <c r="F34" s="64">
+        <v>45.247999999999998</v>
+      </c>
+      <c r="G34" s="64">
+        <v>1719.424</v>
+      </c>
+      <c r="I34" s="28">
+        <v>6</v>
+      </c>
+      <c r="J34" s="59"/>
+      <c r="K34" s="70">
+        <v>6</v>
+      </c>
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="66">
+        <v>44960</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="44">
+        <v>64</v>
+      </c>
+      <c r="F35" s="64">
+        <v>10.227</v>
+      </c>
+      <c r="G35" s="64">
+        <v>654.52800000000002</v>
+      </c>
+      <c r="I35" s="28">
+        <v>7</v>
+      </c>
+      <c r="J35" s="59"/>
+      <c r="K35" s="70">
+        <v>7</v>
+      </c>
+      <c r="L35" s="59"/>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="66">
+        <v>44961</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="44">
+        <v>11</v>
+      </c>
+      <c r="F36" s="64">
+        <v>88.364000000000004</v>
+      </c>
+      <c r="G36" s="64">
+        <v>972.00400000000002</v>
+      </c>
+      <c r="I36" s="28">
+        <v>8</v>
+      </c>
+      <c r="J36" s="59"/>
+      <c r="K36" s="70">
+        <v>8</v>
+      </c>
+      <c r="L36" s="59"/>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="66">
+        <v>44962</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="E37" s="44">
+        <v>30</v>
+      </c>
+      <c r="F37" s="64">
+        <v>88.960999999999999</v>
+      </c>
+      <c r="G37" s="64">
+        <v>2668.83</v>
+      </c>
+      <c r="I37" s="28">
+        <v>9</v>
+      </c>
+      <c r="J37" s="59"/>
+      <c r="K37" s="70">
+        <v>9</v>
+      </c>
+      <c r="L37" s="59"/>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="66">
+        <v>44963</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>318</v>
+      </c>
+      <c r="E38" s="44">
+        <v>32</v>
+      </c>
+      <c r="F38" s="64">
+        <v>47.933</v>
+      </c>
+      <c r="G38" s="64">
+        <v>1533.856</v>
+      </c>
+      <c r="I38" s="69">
+        <v>10</v>
+      </c>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68">
+        <v>10</v>
+      </c>
+      <c r="L38" s="67"/>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="66">
+        <v>44964</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="44">
+        <v>33</v>
+      </c>
+      <c r="F39" s="64">
+        <v>57.789000000000001</v>
+      </c>
+      <c r="G39" s="64">
+        <v>1907.037</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="66">
+        <v>44965</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="E40" s="44">
+        <v>31</v>
+      </c>
+      <c r="F40" s="64">
+        <v>52.091000000000001</v>
+      </c>
+      <c r="G40" s="64">
+        <v>1614.8210000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="66">
+        <v>44966</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="44">
+        <v>55</v>
+      </c>
+      <c r="F41" s="64">
+        <v>32.765999999999998</v>
+      </c>
+      <c r="G41" s="64">
+        <v>1802.1299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="66">
+        <v>44967</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E42" s="44">
+        <v>29</v>
+      </c>
+      <c r="F42" s="64">
+        <v>31.339000000000002</v>
+      </c>
+      <c r="G42" s="64">
+        <v>908.83100000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="66">
+        <v>44968</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>312</v>
+      </c>
+      <c r="E43" s="44">
+        <v>45</v>
+      </c>
+      <c r="F43" s="64">
+        <v>25.274000000000001</v>
+      </c>
+      <c r="G43" s="64">
+        <v>1137.33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="66">
+        <v>44969</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="44">
+        <v>56</v>
+      </c>
+      <c r="F44" s="64">
+        <v>82.108999999999995</v>
+      </c>
+      <c r="G44" s="64">
+        <v>4598.1039999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="66">
+        <v>44970</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="E45" s="44">
+        <v>67</v>
+      </c>
+      <c r="F45" s="64">
+        <v>27.704000000000001</v>
+      </c>
+      <c r="G45" s="64">
+        <v>1856.1680000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="66">
+        <v>44971</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="44">
+        <v>63</v>
+      </c>
+      <c r="F46" s="64">
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="G46" s="64">
+        <v>255.08700000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="66">
+        <v>44972</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="E47" s="44">
+        <v>61</v>
+      </c>
+      <c r="F47" s="64">
+        <v>29.016000000000002</v>
+      </c>
+      <c r="G47" s="64">
+        <v>1769.9760000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="63">
+        <v>44973</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="E48" s="38">
+        <v>48</v>
+      </c>
+      <c r="F48" s="61">
+        <v>69.073999999999998</v>
+      </c>
+      <c r="G48" s="61">
+        <v>3315.5519999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9678632-6662-4640-80B0-EA6A08EFDFCC}">
+  <dimension ref="B2:M62"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="27" customWidth="1"/>
+    <col min="3" max="5" width="18.81640625" style="27" customWidth="1"/>
+    <col min="6" max="8" width="12.81640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="2.81640625" style="27" customWidth="1"/>
+    <col min="10" max="13" width="12.81640625" style="27" customWidth="1"/>
+    <col min="14" max="16384" width="8.90625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15" thickBot="1">
+      <c r="B2" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>453</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickTop="1">
+      <c r="B3" s="51">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" s="74">
+        <v>281</v>
+      </c>
+      <c r="G3" s="73">
+        <v>3.99</v>
+      </c>
+      <c r="H3" s="78"/>
+      <c r="J3" s="4">
+        <v>1054</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="44">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="65">
+        <v>446</v>
+      </c>
+      <c r="G4" s="64">
+        <v>1.99</v>
+      </c>
+      <c r="H4" s="77"/>
+      <c r="J4" s="4">
+        <v>1052</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="44">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="65">
+        <v>258</v>
+      </c>
+      <c r="G5" s="64">
+        <v>4.49</v>
+      </c>
+      <c r="H5" s="77"/>
+      <c r="J5" s="4">
+        <v>1012</v>
+      </c>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="44">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>444</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="65">
+        <v>252</v>
+      </c>
+      <c r="G6" s="64">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H6" s="77"/>
+      <c r="J6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="44">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="65">
+        <v>169</v>
+      </c>
+      <c r="G7" s="64">
+        <v>0.99</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="J7" s="4">
+        <v>1020</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="44">
+        <v>1006</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="65">
+        <v>338</v>
+      </c>
+      <c r="G8" s="64">
+        <v>1.79</v>
+      </c>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="44">
+        <v>1007</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>437</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="65">
+        <v>190</v>
+      </c>
+      <c r="G9" s="64">
+        <v>2.29</v>
+      </c>
+      <c r="H9" s="77"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="44">
+        <v>1008</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>435</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="65">
+        <v>294</v>
+      </c>
+      <c r="G10" s="64">
+        <v>3.99</v>
+      </c>
+      <c r="H10" s="77"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="44">
+        <v>1009</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>434</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>433</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="65">
+        <v>362</v>
+      </c>
+      <c r="G11" s="64">
+        <v>3.29</v>
+      </c>
+      <c r="H11" s="77"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="44">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" s="65">
+        <v>163</v>
+      </c>
+      <c r="G12" s="64">
+        <v>4.99</v>
+      </c>
+      <c r="H12" s="77"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="44">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>431</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>430</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="65">
+        <v>165</v>
+      </c>
+      <c r="G13" s="64">
+        <v>2.99</v>
+      </c>
+      <c r="H13" s="77"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="44">
+        <v>1012</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>429</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14" s="65">
+        <v>358</v>
+      </c>
+      <c r="G14" s="64">
+        <v>1.49</v>
+      </c>
+      <c r="H14" s="77"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="44">
+        <v>1013</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>427</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="65">
+        <v>203</v>
+      </c>
+      <c r="G15" s="64">
+        <v>3.49</v>
+      </c>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="44">
+        <v>1014</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16" s="65">
+        <v>336</v>
+      </c>
+      <c r="G16" s="64">
+        <v>1.79</v>
+      </c>
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="44">
+        <v>1015</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" s="65">
+        <v>390</v>
+      </c>
+      <c r="G17" s="64">
+        <v>4.99</v>
+      </c>
+      <c r="H17" s="77"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="44">
+        <v>1016</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="65">
+        <v>290</v>
+      </c>
+      <c r="G18" s="64">
+        <v>8.99</v>
+      </c>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="44">
+        <v>1017</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>419</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F19" s="65">
+        <v>202</v>
+      </c>
+      <c r="G19" s="64">
+        <v>5.99</v>
+      </c>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="44">
+        <v>1018</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>418</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="65">
+        <v>269</v>
+      </c>
+      <c r="G20" s="64">
+        <v>4.49</v>
+      </c>
+      <c r="H20" s="77"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="44">
+        <v>1019</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="65">
+        <v>358</v>
+      </c>
+      <c r="G21" s="64">
+        <v>3.49</v>
+      </c>
+      <c r="H21" s="77"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="44">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>414</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>413</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="65">
+        <v>435</v>
+      </c>
+      <c r="G22" s="64">
+        <v>6.99</v>
+      </c>
+      <c r="H22" s="77"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="44">
+        <v>1021</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>410</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="65">
+        <v>375</v>
+      </c>
+      <c r="G23" s="64">
+        <v>7.99</v>
+      </c>
+      <c r="H23" s="77"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="44">
+        <v>1022</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>409</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" s="65">
+        <v>216</v>
+      </c>
+      <c r="G24" s="64">
+        <v>3.99</v>
+      </c>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="44">
+        <v>1023</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>407</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="65">
+        <v>240</v>
+      </c>
+      <c r="G25" s="64">
+        <v>0.99</v>
+      </c>
+      <c r="H25" s="77"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="44">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>406</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="F26" s="65">
+        <v>305</v>
+      </c>
+      <c r="G26" s="64">
+        <v>3.49</v>
+      </c>
+      <c r="H26" s="77"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="44">
+        <v>1025</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F27" s="65">
+        <v>244</v>
+      </c>
+      <c r="G27" s="64">
+        <v>6.49</v>
+      </c>
+      <c r="H27" s="77"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="44">
+        <v>1026</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="F28" s="65">
+        <v>146</v>
+      </c>
+      <c r="G28" s="64">
+        <v>1.29</v>
+      </c>
+      <c r="H28" s="77"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="44">
+        <v>1027</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29" s="65">
+        <v>366</v>
+      </c>
+      <c r="G29" s="64">
+        <v>4.99</v>
+      </c>
+      <c r="H29" s="77"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="44">
+        <v>1028</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="D30" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" s="65">
+        <v>445</v>
+      </c>
+      <c r="G30" s="64">
+        <v>2.99</v>
+      </c>
+      <c r="H30" s="77"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="44">
+        <v>1029</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F31" s="65">
+        <v>280</v>
+      </c>
+      <c r="G31" s="64">
+        <v>9.99</v>
+      </c>
+      <c r="H31" s="77"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="44">
+        <v>1030</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>394</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F32" s="65">
+        <v>477</v>
+      </c>
+      <c r="G32" s="64">
+        <v>4.99</v>
+      </c>
+      <c r="H32" s="77"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="44">
+        <v>1031</v>
+      </c>
+      <c r="C33" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F33" s="65">
+        <v>186</v>
+      </c>
+      <c r="G33" s="64">
+        <v>1.19</v>
+      </c>
+      <c r="H33" s="77"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="44">
+        <v>1032</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="E34" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F34" s="65">
+        <v>168</v>
+      </c>
+      <c r="G34" s="64">
+        <v>4.29</v>
+      </c>
+      <c r="H34" s="77"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="44">
+        <v>1033</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>391</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>390</v>
+      </c>
+      <c r="E35" s="65" t="s">
+        <v>389</v>
+      </c>
+      <c r="F35" s="65">
+        <v>455</v>
+      </c>
+      <c r="G35" s="64">
+        <v>1.69</v>
+      </c>
+      <c r="H35" s="77"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="44">
+        <v>1034</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>388</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>387</v>
+      </c>
+      <c r="F36" s="65">
+        <v>376</v>
+      </c>
+      <c r="G36" s="64">
+        <v>2.79</v>
+      </c>
+      <c r="H36" s="77"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="44">
+        <v>1035</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" s="65">
+        <v>367</v>
+      </c>
+      <c r="G37" s="64">
+        <v>5.99</v>
+      </c>
+      <c r="H37" s="77"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="44">
+        <v>1036</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" s="65">
+        <v>407</v>
+      </c>
+      <c r="G38" s="64">
+        <v>3.49</v>
+      </c>
+      <c r="H38" s="77"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="44">
+        <v>1037</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D39" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="F39" s="65">
+        <v>230</v>
+      </c>
+      <c r="G39" s="64">
+        <v>3.29</v>
+      </c>
+      <c r="H39" s="77"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="44">
+        <v>1038</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="F40" s="65">
+        <v>221</v>
+      </c>
+      <c r="G40" s="64">
+        <v>4.49</v>
+      </c>
+      <c r="H40" s="77"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="44">
+        <v>1039</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="D41" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" s="65">
+        <v>454</v>
+      </c>
+      <c r="G41" s="64">
+        <v>6.99</v>
+      </c>
+      <c r="H41" s="77"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="44">
+        <v>1040</v>
+      </c>
+      <c r="C42" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F42" s="65">
+        <v>402</v>
+      </c>
+      <c r="G42" s="64">
+        <v>4.49</v>
+      </c>
+      <c r="H42" s="77"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="44">
+        <v>1041</v>
+      </c>
+      <c r="C43" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F43" s="65">
+        <v>305</v>
+      </c>
+      <c r="G43" s="64">
+        <v>1.99</v>
+      </c>
+      <c r="H43" s="77"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="44">
+        <v>1042</v>
+      </c>
+      <c r="C44" s="65" t="s">
+        <v>376</v>
+      </c>
+      <c r="D44" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="F44" s="65">
+        <v>428</v>
+      </c>
+      <c r="G44" s="64">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H44" s="77"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="44">
+        <v>1043</v>
+      </c>
+      <c r="C45" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="D45" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F45" s="65">
+        <v>413</v>
+      </c>
+      <c r="G45" s="64">
+        <v>3.99</v>
+      </c>
+      <c r="H45" s="77"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="44">
+        <v>1044</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46" s="65">
+        <v>206</v>
+      </c>
+      <c r="G46" s="64">
+        <v>2.99</v>
+      </c>
+      <c r="H46" s="77"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="44">
+        <v>1045</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F47" s="65">
+        <v>298</v>
+      </c>
+      <c r="G47" s="64">
+        <v>3.29</v>
+      </c>
+      <c r="H47" s="77"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="44">
+        <v>1046</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="F48" s="65">
+        <v>286</v>
+      </c>
+      <c r="G48" s="64">
+        <v>4.49</v>
+      </c>
+      <c r="H48" s="77"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="44">
+        <v>1047</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="F49" s="65">
+        <v>292</v>
+      </c>
+      <c r="G49" s="64">
+        <v>3.99</v>
+      </c>
+      <c r="H49" s="77"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="44">
+        <v>1048</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="D50" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" s="65">
+        <v>419</v>
+      </c>
+      <c r="G50" s="64">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H50" s="77"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="44">
+        <v>1049</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="D51" s="65" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F51" s="65">
+        <v>297</v>
+      </c>
+      <c r="G51" s="64">
+        <v>1.99</v>
+      </c>
+      <c r="H51" s="77"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="44">
+        <v>1050</v>
+      </c>
+      <c r="C52" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52" s="65" t="s">
+        <v>359</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="F52" s="65">
+        <v>252</v>
+      </c>
+      <c r="G52" s="64">
+        <v>3.49</v>
+      </c>
+      <c r="H52" s="77"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="44">
+        <v>1051</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="F53" s="65">
+        <v>418</v>
+      </c>
+      <c r="G53" s="64">
+        <v>1.99</v>
+      </c>
+      <c r="H53" s="77"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="44">
+        <v>1052</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="D54" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F54" s="65">
+        <v>183</v>
+      </c>
+      <c r="G54" s="64">
+        <v>3.49</v>
+      </c>
+      <c r="H54" s="77"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="44">
+        <v>1053</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F55" s="65">
+        <v>418</v>
+      </c>
+      <c r="G55" s="64">
+        <v>4.99</v>
+      </c>
+      <c r="H55" s="77"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="44">
+        <v>1054</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F56" s="65">
+        <v>467</v>
+      </c>
+      <c r="G56" s="64">
+        <v>2.99</v>
+      </c>
+      <c r="H56" s="77"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="44">
+        <v>1055</v>
+      </c>
+      <c r="C57" s="65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="F57" s="65">
+        <v>384</v>
+      </c>
+      <c r="G57" s="64">
+        <v>3.29</v>
+      </c>
+      <c r="H57" s="77"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="44">
+        <v>1056</v>
+      </c>
+      <c r="C58" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>346</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="F58" s="65">
+        <v>262</v>
+      </c>
+      <c r="G58" s="64">
+        <v>1.49</v>
+      </c>
+      <c r="H58" s="77"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="44">
+        <v>1057</v>
+      </c>
+      <c r="C59" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="D59" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="E59" s="65" t="s">
+        <v>342</v>
+      </c>
+      <c r="F59" s="65">
+        <v>228</v>
+      </c>
+      <c r="G59" s="64">
+        <v>3.99</v>
+      </c>
+      <c r="H59" s="77"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="44">
+        <v>1058</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="F60" s="65">
+        <v>444</v>
+      </c>
+      <c r="G60" s="64">
+        <v>1.29</v>
+      </c>
+      <c r="H60" s="77"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="44">
+        <v>1059</v>
+      </c>
+      <c r="C61" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" s="65">
+        <v>174</v>
+      </c>
+      <c r="G61" s="64">
+        <v>1.79</v>
+      </c>
+      <c r="H61" s="77"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="38">
+        <v>1060</v>
+      </c>
+      <c r="C62" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="E62" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="F62" s="62">
+        <v>270</v>
+      </c>
+      <c r="G62" s="61">
+        <v>2.99</v>
+      </c>
+      <c r="H62" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>